--- a/Time log.xlsx
+++ b/Time log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{148D71C6-8A77-4897-A34B-A69853D84BC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{272FE868-EF3F-4E25-9927-A30A8196F688}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23234" windowHeight="9197" xr2:uid="{78DBB9AD-EA7B-4842-A233-18BB8D211266}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Jeremy Tryon</t>
   </si>
 </sst>
 </file>
@@ -397,11 +400,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3A1ABE-0FF7-47F9-A36D-1F583D70E339}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <cols>
@@ -411,24 +412,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
